--- a/Power/power_module_bom_.xlsx
+++ b/Power/power_module_bom_.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCAD\Projects\PFC2k5W\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A1791FE1-9BE2-44AE-91FC-5F4ADC9CBE90}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2753EE03-02B9-4BB4-BEE2-D90ACC3999D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power_module_bom_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
   <si>
     <t>Component Groups:,26</t>
   </si>
@@ -166,9 +166,6 @@
     <t>D_SOD-123</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Zener_diode</t>
-  </si>
-  <si>
     <t>IDW75E60</t>
   </si>
   <si>
@@ -401,12 +398,18 @@
   </si>
   <si>
     <t>https://www.mouser.com.tr/ProductDetail/Ohmite/C60-075-VE?qs=AUG1J5sL7zLi9iiMhoY%252bMw==</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/BZT52C15-7-F/BZT52C15-FDITR-ND/755469</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds18004.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1277,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1295,7 @@
     <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,7 +1324,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1514,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,8 +1542,11 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
+      <c r="H10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -1563,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,28 +1580,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1603,19 +1609,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1626,19 +1632,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1649,25 +1655,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1675,25 +1681,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1701,28 +1707,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
         <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,28 +1736,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1759,22 +1765,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1782,16 +1788,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1802,16 +1808,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -1820,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,19 +1834,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1851,19 +1857,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1874,19 +1880,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
       <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1897,19 +1903,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1920,19 +1926,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
       <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1943,16 +1949,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1963,13 +1969,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1977,13 +1983,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1991,13 +1997,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2052,7 +2058,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1"/>
+    <hyperlink ref="I30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{AD873CDE-B4A3-4F40-B5F1-C4F48158BD02}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{96CBE62F-06DB-484B-8947-28923B02A8B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
